--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-231 Fresh Bakery_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-231 Fresh Bakery_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208F640A-B4B7-478E-960D-2B454670B4F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42EB89BC-AC27-4D39-9C10-31B3BD4A3F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="209">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,7 +295,7 @@
     <t>n</t>
   </si>
   <si>
-    <t>BREAKAGE BRD CKS</t>
+    <t>DOUGHNUT PEDDLER LARGE DONUT</t>
   </si>
   <si>
     <t>g</t>
@@ -322,214 +322,331 @@
     <t>Bakery</t>
   </si>
   <si>
-    <t>37003232-1</t>
+    <t>37003368-1</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>_937003368</t>
+  </si>
+  <si>
+    <t>Transfer Group</t>
+  </si>
+  <si>
+    <t>DOUGHNUT PEDDLER REGULAR DONUT</t>
+  </si>
+  <si>
+    <t>37003369-1</t>
+  </si>
+  <si>
+    <t>_937003369</t>
+  </si>
+  <si>
+    <t>TDP DONUT WITH HOLE</t>
+  </si>
+  <si>
+    <t>Default Strategy</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>TDP DONUT WITHOUT HOLE</t>
+  </si>
+  <si>
+    <t>TDP CLEAR BAGS</t>
+  </si>
+  <si>
+    <t>TDP PLASTIC DELI SHEETS</t>
+  </si>
+  <si>
+    <t>TDP HALF DOZEN DONUT BOX</t>
+  </si>
+  <si>
+    <t>LOFTHOUSE COOKIE PUMPKIN FROSTED 10.5Z</t>
+  </si>
+  <si>
+    <t>231 04 003 Pre-packaged</t>
+  </si>
+  <si>
+    <t>LOFTHOUSE</t>
+  </si>
+  <si>
+    <t>1125246-1</t>
   </si>
   <si>
     <t>u</t>
   </si>
   <si>
-    <t>_004120510364</t>
-  </si>
-  <si>
-    <t>Transfer Group</t>
-  </si>
-  <si>
-    <t>ALEJANDROS LRG FLR TRTLLA</t>
-  </si>
-  <si>
-    <t>37003236-1</t>
-  </si>
-  <si>
-    <t>_050455121003</t>
-  </si>
-  <si>
-    <t>ALEJANDROS MED FLR TRTLLA</t>
-  </si>
-  <si>
-    <t>37003240-1</t>
-  </si>
-  <si>
-    <t>_050455122000</t>
-  </si>
-  <si>
-    <t>ALEJANDROS FJTA FLR</t>
-  </si>
-  <si>
-    <t>37003242-1</t>
-  </si>
-  <si>
-    <t>_050455123007</t>
-  </si>
-  <si>
-    <t>ALEJANDROS MED SYBN</t>
-  </si>
-  <si>
-    <t>37003244-1</t>
-  </si>
-  <si>
-    <t>_050455124004</t>
-  </si>
-  <si>
-    <t>ALEJANDROS CORN TORTILLA</t>
-  </si>
-  <si>
-    <t>37003246-1</t>
-  </si>
-  <si>
-    <t>_050455128002</t>
-  </si>
-  <si>
-    <t>MEXICAN BREAD</t>
-  </si>
-  <si>
-    <t>37003247-1</t>
-  </si>
-  <si>
-    <t>_050455137004</t>
-  </si>
-  <si>
-    <t>CONCHITOS</t>
-  </si>
-  <si>
-    <t>37003249-1</t>
-  </si>
-  <si>
-    <t>_050455137011</t>
-  </si>
-  <si>
-    <t>LENOS HEBILLAS ELOTES</t>
-  </si>
-  <si>
-    <t>37003251-1</t>
-  </si>
-  <si>
-    <t>_050455137028</t>
-  </si>
-  <si>
-    <t>BOLLITOS</t>
-  </si>
-  <si>
-    <t>37003252-1</t>
-  </si>
-  <si>
-    <t>_050455137035</t>
-  </si>
-  <si>
-    <t>BIROTE BIROTITO VIRGINIA</t>
-  </si>
-  <si>
-    <t>37003253-1</t>
-  </si>
-  <si>
-    <t>_050455137042</t>
-  </si>
-  <si>
-    <t>GALLETAS</t>
-  </si>
-  <si>
-    <t>37003255-1</t>
-  </si>
-  <si>
-    <t>_050455137059</t>
-  </si>
-  <si>
-    <t>YOYOS</t>
-  </si>
-  <si>
-    <t>37003256-1</t>
-  </si>
-  <si>
-    <t>_050455137066</t>
-  </si>
-  <si>
-    <t>PAN DE HUEVO</t>
-  </si>
-  <si>
-    <t>37003257-1</t>
-  </si>
-  <si>
-    <t>_050455137073</t>
-  </si>
-  <si>
-    <t>37003258-1</t>
-  </si>
-  <si>
-    <t>_050755137025</t>
-  </si>
-  <si>
-    <t>ALEJANDROS CRN CHPS</t>
-  </si>
-  <si>
-    <t>37003259-1</t>
-  </si>
-  <si>
-    <t>_050455135000</t>
-  </si>
-  <si>
-    <t>MI PUEBLITO LARGE TORTILLAS</t>
-  </si>
-  <si>
-    <t>37003324-1</t>
-  </si>
-  <si>
-    <t>_793573820020</t>
-  </si>
-  <si>
-    <t>MI PUEBLITO MEDIUM TORTILLAS</t>
-  </si>
-  <si>
-    <t>37003325-1</t>
-  </si>
-  <si>
-    <t>_793573828026</t>
-  </si>
-  <si>
-    <t>ISMB SALTED CARAMEL COOKIE</t>
-  </si>
-  <si>
-    <t>231 05 005 ISMB Cafe Cookie</t>
-  </si>
-  <si>
-    <t>1124823-1</t>
-  </si>
-  <si>
-    <t>_841112105081</t>
-  </si>
-  <si>
-    <t>DONUT KRAZE DOZEN DONUTS</t>
-  </si>
-  <si>
-    <t>Donut Kraze</t>
-  </si>
-  <si>
-    <t>Default Strategy</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>DONUT KRAZE SINGLE DONUT</t>
-  </si>
-  <si>
-    <t>38002002-1</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>_938002002</t>
-  </si>
-  <si>
-    <t>DONUT KRAZE HALF DOZEN DONUTS</t>
-  </si>
-  <si>
-    <t>38002003-1</t>
-  </si>
-  <si>
-    <t>_938002003</t>
+    <t>_708971907082</t>
+  </si>
+  <si>
+    <t>NO BAKE PUMPKIN SPICE COOKIE 4.3Z</t>
+  </si>
+  <si>
+    <t>231 04 002 Speedy Treats</t>
+  </si>
+  <si>
+    <t>THE NO BAKE COOKIE COMPANY</t>
+  </si>
+  <si>
+    <t>1125247-1</t>
+  </si>
+  <si>
+    <t>_851779005082</t>
+  </si>
+  <si>
+    <t>NO BAKE DARK CHOC PEPMINT COOKIE 4.3Z</t>
+  </si>
+  <si>
+    <t>1125248-1</t>
+  </si>
+  <si>
+    <t>_851779005679</t>
+  </si>
+  <si>
+    <t>CLYDES GLAZED CINNAMON TWISTS</t>
+  </si>
+  <si>
+    <t>231 02 007 Thaw and Serve</t>
+  </si>
+  <si>
+    <t>CLYDES DELICIOUS</t>
+  </si>
+  <si>
+    <t>CLYDES GLAZED OLD FASHIONED DONUTS</t>
+  </si>
+  <si>
+    <t>CLYDES POWDERED LIL SMILES</t>
+  </si>
+  <si>
+    <t>1125279-1</t>
+  </si>
+  <si>
+    <t>_020337113075</t>
+  </si>
+  <si>
+    <t>CLYDES GLAZED OLD FASHIONED LIL SMILES</t>
+  </si>
+  <si>
+    <t>1125280-1</t>
+  </si>
+  <si>
+    <t>_020337115079</t>
+  </si>
+  <si>
+    <t>LB KAISER BUTTERED</t>
+  </si>
+  <si>
+    <t>1125569-1</t>
+  </si>
+  <si>
+    <t>_985065402177</t>
+  </si>
+  <si>
+    <t>LB BAGEL PLAIN BUTTERED</t>
+  </si>
+  <si>
+    <t>LAKEWOOD BAKERY</t>
+  </si>
+  <si>
+    <t>1125572-1</t>
+  </si>
+  <si>
+    <t>_985065403204</t>
+  </si>
+  <si>
+    <t>LB BAGEL POPPY BUTTERED</t>
+  </si>
+  <si>
+    <t>1125573-1</t>
+  </si>
+  <si>
+    <t>_985065403235</t>
+  </si>
+  <si>
+    <t>LB BAGEL SESAME BUTTERED</t>
+  </si>
+  <si>
+    <t>1125574-1</t>
+  </si>
+  <si>
+    <t>_985065402504</t>
+  </si>
+  <si>
+    <t>LB BAGEL ONION BUTTERED</t>
+  </si>
+  <si>
+    <t>1125575-1</t>
+  </si>
+  <si>
+    <t>_985065402535</t>
+  </si>
+  <si>
+    <t>LB BAGEL C/R BUTTERED</t>
+  </si>
+  <si>
+    <t>1125577-1</t>
+  </si>
+  <si>
+    <t>_985065403273</t>
+  </si>
+  <si>
+    <t>LB BAGEL EVERY BUTTERED</t>
+  </si>
+  <si>
+    <t>1125579-1</t>
+  </si>
+  <si>
+    <t>_985065403303</t>
+  </si>
+  <si>
+    <t>LB CROISSANT WRAP</t>
+  </si>
+  <si>
+    <t>1125580-1</t>
+  </si>
+  <si>
+    <t>_985065404492</t>
+  </si>
+  <si>
+    <t>TS DONUT LARGE</t>
+  </si>
+  <si>
+    <t>1125585-1</t>
+  </si>
+  <si>
+    <t>_91125585</t>
+  </si>
+  <si>
+    <t>CSB MOCHA SQ</t>
+  </si>
+  <si>
+    <t>CSB LEMON SQ</t>
+  </si>
+  <si>
+    <t>CSB RAISED W NUTS</t>
+  </si>
+  <si>
+    <t>CSB PEANUT RAISED</t>
+  </si>
+  <si>
+    <t>CSB FILLED LONG JOHNS</t>
+  </si>
+  <si>
+    <t>CSB GERMAN CHOCOLATE BUNS</t>
+  </si>
+  <si>
+    <t>CSB REGULAR SIZE MUFFINS</t>
+  </si>
+  <si>
+    <t>CSB BARS</t>
+  </si>
+  <si>
+    <t>CSB DANISH ROLLS</t>
+  </si>
+  <si>
+    <t>CSB LARGE CARAMEL ROLLS</t>
+  </si>
+  <si>
+    <t>CSB BISMARKS</t>
+  </si>
+  <si>
+    <t>CSB DELITES</t>
+  </si>
+  <si>
+    <t>CSB RAISED TWISTS DONUTS</t>
+  </si>
+  <si>
+    <t>CSB RAISED GLAZED DONUTS</t>
+  </si>
+  <si>
+    <t>CSB LONG JOHNS</t>
+  </si>
+  <si>
+    <t>CSB LARGE DONUTS</t>
+  </si>
+  <si>
+    <t>1126160-1</t>
+  </si>
+  <si>
+    <t>_91126160</t>
+  </si>
+  <si>
+    <t>CSB REGULAR DONUTS</t>
+  </si>
+  <si>
+    <t>1126161-1</t>
+  </si>
+  <si>
+    <t>_91126161</t>
+  </si>
+  <si>
+    <t>CSB CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>1126162-1</t>
+  </si>
+  <si>
+    <t>_91126162</t>
+  </si>
+  <si>
+    <t>CSB MUFFINS AND BARS</t>
+  </si>
+  <si>
+    <t>1126163-1</t>
+  </si>
+  <si>
+    <t>_91126163</t>
+  </si>
+  <si>
+    <t>CSB FRENCH DONUTS</t>
+  </si>
+  <si>
+    <t>CSB BLUEBERRY POCKETS</t>
+  </si>
+  <si>
+    <t>CSB CHERRY POCKETS</t>
+  </si>
+  <si>
+    <t>CSB APPLE POCKETS</t>
+  </si>
+  <si>
+    <t>CSB APPLE FRITTERS</t>
+  </si>
+  <si>
+    <t>CSB SWEET ROLLS</t>
+  </si>
+  <si>
+    <t>CSB KOLACHIES</t>
+  </si>
+  <si>
+    <t>CSB PEANUT CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>CSB OLD FASHIONED SQUARE CARAMEL ROLLS</t>
+  </si>
+  <si>
+    <t>CSB ICED CAKED DONUTS</t>
+  </si>
+  <si>
+    <t>CSB CHOCOLATE CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>CSB DEVIL'S FOOD CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>CSB PLAIN CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>CSB SUGAR GLAZED CAKE DONUTS</t>
+  </si>
+  <si>
+    <t>CSB POWDERED CAKE DONUTS</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI25"/>
+  <dimension ref="A1:DI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1746,36 +1863,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -1902,7 +2019,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -2107,7 +2224,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2426,9 +2543,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>37003232</v>
+        <v>37003368</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2494,7 +2611,7 @@
         <v>100</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AP4" t="s">
         <v>101</v>
@@ -2506,9 +2623,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>37003236</v>
+        <v>37003369</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -2574,7 +2691,7 @@
         <v>105</v>
       </c>
       <c r="AO5" s="15">
-        <v>3.29</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AP5" t="s">
         <v>101</v>
@@ -2586,9 +2703,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37003240</v>
+        <v>37003370</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -2597,7 +2714,7 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
@@ -2630,54 +2747,51 @@
         <v>97</v>
       </c>
       <c r="AE6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s">
         <v>90</v>
       </c>
       <c r="AG6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="s">
         <v>90</v>
       </c>
       <c r="AK6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL6">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>109</v>
       </c>
       <c r="AM6" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>2.99</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO6" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ6" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CZ6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>37003242</v>
+        <v>37003371</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
         <v>93</v>
@@ -2710,54 +2824,51 @@
         <v>97</v>
       </c>
       <c r="AE7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
         <v>90</v>
       </c>
       <c r="AG7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s">
         <v>90</v>
       </c>
       <c r="AK7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>109</v>
       </c>
       <c r="AM7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>1.79</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CZ7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37003244</v>
+        <v>37003372</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
         <v>93</v>
@@ -2790,54 +2901,51 @@
         <v>97</v>
       </c>
       <c r="AE8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF8" t="s">
         <v>90</v>
       </c>
       <c r="AG8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="s">
         <v>90</v>
       </c>
       <c r="AK8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>109</v>
       </c>
       <c r="AM8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO8" s="15">
-        <v>2.79</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO8" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ8" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="CZ8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37003246</v>
+        <v>37003373</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
         <v>93</v>
@@ -2870,54 +2978,51 @@
         <v>97</v>
       </c>
       <c r="AE9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s">
         <v>90</v>
       </c>
       <c r="AG9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH9" t="s">
         <v>90</v>
       </c>
       <c r="AK9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>109</v>
       </c>
       <c r="AM9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN9" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO9" s="15">
-        <v>1.39</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO9" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ9" s="13" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="CZ9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37003247</v>
+        <v>37003374</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -2950,61 +3055,61 @@
         <v>97</v>
       </c>
       <c r="AE10" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s">
         <v>90</v>
       </c>
       <c r="AG10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="s">
         <v>90</v>
       </c>
       <c r="AK10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL10">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>109</v>
       </c>
       <c r="AM10" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO10" s="15">
-        <v>2.79</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO10" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ10" s="13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="CZ10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>37003249</v>
+        <v>1125246</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
         <v>94</v>
       </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
       <c r="K11" t="s">
         <v>95</v>
       </c>
@@ -3051,40 +3156,43 @@
         <v>99</v>
       </c>
       <c r="AN11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO11" s="15">
-        <v>2.79</v>
+        <v>3.99</v>
       </c>
       <c r="AP11" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ11" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="CZ11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>37003251</v>
+        <v>1125247</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
         <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
       </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
       <c r="K12" t="s">
         <v>95</v>
       </c>
@@ -3131,40 +3239,43 @@
         <v>99</v>
       </c>
       <c r="AN12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AO12" s="15">
-        <v>2.79</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AP12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ12" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CZ12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>37003252</v>
+        <v>1125248</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
       </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
       <c r="K13" t="s">
         <v>95</v>
       </c>
@@ -3211,40 +3322,43 @@
         <v>99</v>
       </c>
       <c r="AN13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AO13" s="15">
-        <v>2.79</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="AP13" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ13" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="CZ13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>37003253</v>
+        <v>1125277</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
       </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
       <c r="K14" t="s">
         <v>95</v>
       </c>
@@ -3270,61 +3384,61 @@
         <v>97</v>
       </c>
       <c r="AE14" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF14" t="s">
         <v>90</v>
       </c>
       <c r="AG14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH14" t="s">
         <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL14">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>109</v>
       </c>
       <c r="AM14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN14" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO14" s="15">
-        <v>2.79</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO14" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ14" s="13" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="CZ14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>37003255</v>
+        <v>1125278</v>
       </c>
       <c r="B15" t="s">
         <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>94</v>
       </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
       <c r="K15" t="s">
         <v>95</v>
       </c>
@@ -3350,61 +3464,61 @@
         <v>97</v>
       </c>
       <c r="AE15" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s">
         <v>90</v>
       </c>
       <c r="AG15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH15" t="s">
         <v>90</v>
       </c>
       <c r="AK15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL15">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>109</v>
       </c>
       <c r="AM15" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AN15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>2.79</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>101</v>
+        <v>109</v>
+      </c>
+      <c r="AO15" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="AQ15" s="13" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="CZ15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>37003256</v>
+        <v>1125279</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
         <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>94</v>
       </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
@@ -3451,40 +3565,43 @@
         <v>99</v>
       </c>
       <c r="AN16" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AO16" s="15">
-        <v>2.79</v>
+        <v>2.99</v>
       </c>
       <c r="AP16" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="CZ16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37003257</v>
+        <v>1125280</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s">
         <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="G17" t="s">
         <v>94</v>
       </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
@@ -3531,30 +3648,30 @@
         <v>99</v>
       </c>
       <c r="AN17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="AO17" s="15">
-        <v>2.79</v>
+        <v>2.99</v>
       </c>
       <c r="AP17" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ17" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="CZ17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>37003258</v>
+        <v>1125569</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>92</v>
@@ -3611,30 +3728,30 @@
         <v>99</v>
       </c>
       <c r="AN18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AO18" s="15">
-        <v>2.79</v>
+        <v>1.99</v>
       </c>
       <c r="AP18" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ18" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="CZ18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>37003259</v>
+        <v>1125572</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
@@ -3645,6 +3762,9 @@
       <c r="G19" t="s">
         <v>94</v>
       </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
       <c r="K19" t="s">
         <v>95</v>
       </c>
@@ -3691,30 +3811,30 @@
         <v>99</v>
       </c>
       <c r="AN19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AO19" s="15">
-        <v>2.99</v>
+        <v>1.99</v>
       </c>
       <c r="AP19" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ19" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CZ19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>37003324</v>
+        <v>1125573</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
@@ -3725,6 +3845,9 @@
       <c r="G20" t="s">
         <v>94</v>
       </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
       <c r="K20" t="s">
         <v>95</v>
       </c>
@@ -3771,30 +3894,30 @@
         <v>99</v>
       </c>
       <c r="AN20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AO20" s="15">
-        <v>3.99</v>
+        <v>1.99</v>
       </c>
       <c r="AP20" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ20" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="CZ20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>37003325</v>
+        <v>1125574</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
@@ -3805,6 +3928,9 @@
       <c r="G21" t="s">
         <v>94</v>
       </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
       <c r="K21" t="s">
         <v>95</v>
       </c>
@@ -3851,40 +3977,43 @@
         <v>99</v>
       </c>
       <c r="AN21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AO21" s="15">
-        <v>3.79</v>
+        <v>1.99</v>
       </c>
       <c r="AP21" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ21" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="CZ21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1124823</v>
+        <v>1125575</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E22" t="s">
         <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
         <v>94</v>
       </c>
+      <c r="I22" t="s">
+        <v>143</v>
+      </c>
       <c r="K22" t="s">
         <v>95</v>
       </c>
@@ -3931,33 +4060,33 @@
         <v>99</v>
       </c>
       <c r="AN22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AO22" s="15">
-        <v>1.29</v>
+        <v>1.99</v>
       </c>
       <c r="AP22" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="AQ22" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="CZ22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>38002001</v>
+        <v>1125577</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
         <v>93</v>
@@ -3966,7 +4095,7 @@
         <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K23" t="s">
         <v>95</v>
@@ -3993,48 +4122,51 @@
         <v>97</v>
       </c>
       <c r="AE23" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="AF23" t="s">
         <v>90</v>
       </c>
       <c r="AG23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH23" t="s">
         <v>90</v>
       </c>
       <c r="AK23" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
       </c>
       <c r="AM23" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AN23" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO23" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>1.99</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>119</v>
       </c>
       <c r="AQ23" s="13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="CZ23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>38002002</v>
+        <v>1125579</v>
       </c>
       <c r="B24" t="s">
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>92</v>
@@ -4046,7 +4178,7 @@
         <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K24" t="s">
         <v>95</v>
@@ -4094,30 +4226,30 @@
         <v>99</v>
       </c>
       <c r="AN24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AO24" s="15">
-        <v>1.25</v>
+        <v>1.99</v>
       </c>
       <c r="AP24" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="AQ24" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="CZ24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>38002003</v>
+        <v>1125580</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
@@ -4129,7 +4261,7 @@
         <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s">
         <v>95</v>
@@ -4177,18 +4309,2728 @@
         <v>99</v>
       </c>
       <c r="AN25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO25" s="15">
+        <v>1.99</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AQ25" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1125585</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P26" t="s">
+        <v>90</v>
+      </c>
+      <c r="S26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO26" s="15">
+        <v>1.19</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ26" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1126145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+      <c r="L27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>90</v>
+      </c>
+      <c r="P27" t="s">
+        <v>90</v>
+      </c>
+      <c r="S27" t="s">
+        <v>97</v>
+      </c>
+      <c r="T27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1126146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
         <v>168</v>
       </c>
-      <c r="AO25" s="15">
-        <v>6.5</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ25" s="13" t="s">
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+      <c r="T28" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO28" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1126147</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
         <v>169</v>
       </c>
-      <c r="CZ25" t="s">
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" t="s">
+        <v>97</v>
+      </c>
+      <c r="T29" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1126148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L30" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" t="s">
+        <v>90</v>
+      </c>
+      <c r="O30" t="s">
+        <v>90</v>
+      </c>
+      <c r="P30" t="s">
+        <v>90</v>
+      </c>
+      <c r="S30" t="s">
+        <v>97</v>
+      </c>
+      <c r="T30" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO30" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1126149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L31" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" t="s">
+        <v>90</v>
+      </c>
+      <c r="O31" t="s">
+        <v>90</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="S31" t="s">
+        <v>97</v>
+      </c>
+      <c r="T31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO31" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ31" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1126150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" t="s">
+        <v>90</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="s">
+        <v>90</v>
+      </c>
+      <c r="S32" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1126151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O33" t="s">
+        <v>90</v>
+      </c>
+      <c r="P33" t="s">
+        <v>90</v>
+      </c>
+      <c r="S33" t="s">
+        <v>97</v>
+      </c>
+      <c r="T33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ33" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1126152</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" t="s">
+        <v>95</v>
+      </c>
+      <c r="L34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>90</v>
+      </c>
+      <c r="S34" t="s">
+        <v>97</v>
+      </c>
+      <c r="T34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1126153</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" t="s">
+        <v>90</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="s">
+        <v>90</v>
+      </c>
+      <c r="S35" t="s">
+        <v>97</v>
+      </c>
+      <c r="T35" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1126154</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L36" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" t="s">
+        <v>90</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="s">
+        <v>90</v>
+      </c>
+      <c r="S36" t="s">
+        <v>97</v>
+      </c>
+      <c r="T36" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO36" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1126155</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="S37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1126156</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" t="s">
+        <v>90</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s">
+        <v>90</v>
+      </c>
+      <c r="S38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ38" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1126157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" t="s">
+        <v>90</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s">
+        <v>90</v>
+      </c>
+      <c r="S39" t="s">
+        <v>97</v>
+      </c>
+      <c r="T39" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO39" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ39" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1126158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" t="s">
+        <v>90</v>
+      </c>
+      <c r="O40" t="s">
+        <v>90</v>
+      </c>
+      <c r="P40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S40" t="s">
+        <v>97</v>
+      </c>
+      <c r="T40" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ40" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1126159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N41" t="s">
+        <v>90</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>90</v>
+      </c>
+      <c r="S41" t="s">
+        <v>97</v>
+      </c>
+      <c r="T41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO41" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ41" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1126160</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" t="s">
+        <v>90</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+      <c r="P42" t="s">
+        <v>90</v>
+      </c>
+      <c r="S42" t="s">
+        <v>97</v>
+      </c>
+      <c r="T42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO42" s="15">
+        <v>1.79</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ42" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CZ42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1126161</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" t="s">
+        <v>95</v>
+      </c>
+      <c r="L43" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" t="s">
+        <v>90</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="s">
+        <v>90</v>
+      </c>
+      <c r="S43" t="s">
+        <v>97</v>
+      </c>
+      <c r="T43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO43" s="15">
+        <v>1.49</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ43" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CZ43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1126162</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44" t="s">
+        <v>96</v>
+      </c>
+      <c r="M44" t="s">
+        <v>96</v>
+      </c>
+      <c r="N44" t="s">
+        <v>90</v>
+      </c>
+      <c r="O44" t="s">
+        <v>90</v>
+      </c>
+      <c r="P44" t="s">
+        <v>90</v>
+      </c>
+      <c r="S44" t="s">
+        <v>97</v>
+      </c>
+      <c r="T44" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>189</v>
+      </c>
+      <c r="AO44" s="15">
+        <v>1.29</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ44" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1126163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F45" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" t="s">
+        <v>90</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="S45" t="s">
+        <v>97</v>
+      </c>
+      <c r="T45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO45" s="15">
+        <v>1.59</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ45" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1126164</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L46" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" t="s">
+        <v>90</v>
+      </c>
+      <c r="O46" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" t="s">
+        <v>90</v>
+      </c>
+      <c r="S46" t="s">
+        <v>97</v>
+      </c>
+      <c r="T46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO46" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1126165</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" t="s">
+        <v>96</v>
+      </c>
+      <c r="N47" t="s">
+        <v>90</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
+      </c>
+      <c r="P47" t="s">
+        <v>90</v>
+      </c>
+      <c r="S47" t="s">
+        <v>97</v>
+      </c>
+      <c r="T47" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO47" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ47" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1126166</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" t="s">
+        <v>96</v>
+      </c>
+      <c r="N48" t="s">
+        <v>90</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s">
+        <v>90</v>
+      </c>
+      <c r="S48" t="s">
+        <v>97</v>
+      </c>
+      <c r="T48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ48" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1126167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" t="s">
+        <v>95</v>
+      </c>
+      <c r="L49" t="s">
+        <v>96</v>
+      </c>
+      <c r="M49" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" t="s">
+        <v>90</v>
+      </c>
+      <c r="O49" t="s">
+        <v>90</v>
+      </c>
+      <c r="P49" t="s">
+        <v>90</v>
+      </c>
+      <c r="S49" t="s">
+        <v>97</v>
+      </c>
+      <c r="T49" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ49" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1126168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" t="s">
+        <v>90</v>
+      </c>
+      <c r="F50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" t="s">
+        <v>95</v>
+      </c>
+      <c r="L50" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" t="s">
+        <v>96</v>
+      </c>
+      <c r="N50" t="s">
+        <v>90</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="s">
+        <v>90</v>
+      </c>
+      <c r="S50" t="s">
+        <v>97</v>
+      </c>
+      <c r="T50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO50" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ50" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1126169</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+      <c r="G51" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" t="s">
+        <v>95</v>
+      </c>
+      <c r="L51" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" t="s">
+        <v>96</v>
+      </c>
+      <c r="N51" t="s">
+        <v>90</v>
+      </c>
+      <c r="O51" t="s">
+        <v>90</v>
+      </c>
+      <c r="P51" t="s">
+        <v>90</v>
+      </c>
+      <c r="S51" t="s">
+        <v>97</v>
+      </c>
+      <c r="T51" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO51" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ51" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1126170</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s">
+        <v>95</v>
+      </c>
+      <c r="L52" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O52" t="s">
+        <v>90</v>
+      </c>
+      <c r="P52" t="s">
+        <v>90</v>
+      </c>
+      <c r="S52" t="s">
+        <v>97</v>
+      </c>
+      <c r="T52" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO52" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1126171</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" t="s">
+        <v>93</v>
+      </c>
+      <c r="G53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L53" t="s">
+        <v>96</v>
+      </c>
+      <c r="M53" t="s">
+        <v>96</v>
+      </c>
+      <c r="N53" t="s">
+        <v>90</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="s">
+        <v>90</v>
+      </c>
+      <c r="S53" t="s">
+        <v>97</v>
+      </c>
+      <c r="T53" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO53" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ53" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1126173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54" t="s">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" t="s">
+        <v>95</v>
+      </c>
+      <c r="L54" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N54" t="s">
+        <v>90</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="s">
+        <v>90</v>
+      </c>
+      <c r="S54" t="s">
+        <v>97</v>
+      </c>
+      <c r="T54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO54" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1126174</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>90</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" t="s">
+        <v>96</v>
+      </c>
+      <c r="N55" t="s">
+        <v>90</v>
+      </c>
+      <c r="O55" t="s">
+        <v>90</v>
+      </c>
+      <c r="P55" t="s">
+        <v>90</v>
+      </c>
+      <c r="S55" t="s">
+        <v>97</v>
+      </c>
+      <c r="T55" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ55" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1126175</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s">
+        <v>90</v>
+      </c>
+      <c r="O56" t="s">
+        <v>90</v>
+      </c>
+      <c r="P56" t="s">
+        <v>90</v>
+      </c>
+      <c r="S56" t="s">
+        <v>97</v>
+      </c>
+      <c r="T56" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO56" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ56" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1126176</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" t="s">
+        <v>95</v>
+      </c>
+      <c r="L57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N57" t="s">
+        <v>90</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="s">
+        <v>90</v>
+      </c>
+      <c r="S57" t="s">
+        <v>97</v>
+      </c>
+      <c r="T57" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO57" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ57" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1126177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G58" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" t="s">
+        <v>95</v>
+      </c>
+      <c r="L58" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" t="s">
+        <v>96</v>
+      </c>
+      <c r="N58" t="s">
+        <v>90</v>
+      </c>
+      <c r="O58" t="s">
+        <v>90</v>
+      </c>
+      <c r="P58" t="s">
+        <v>90</v>
+      </c>
+      <c r="S58" t="s">
+        <v>97</v>
+      </c>
+      <c r="T58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ58" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1126178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" t="s">
+        <v>90</v>
+      </c>
+      <c r="F59" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s">
+        <v>95</v>
+      </c>
+      <c r="L59" t="s">
+        <v>96</v>
+      </c>
+      <c r="M59" t="s">
+        <v>96</v>
+      </c>
+      <c r="N59" t="s">
+        <v>90</v>
+      </c>
+      <c r="O59" t="s">
+        <v>90</v>
+      </c>
+      <c r="P59" t="s">
+        <v>90</v>
+      </c>
+      <c r="S59" t="s">
+        <v>97</v>
+      </c>
+      <c r="T59" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ59" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1126179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" t="s">
+        <v>208</v>
+      </c>
+      <c r="E60" t="s">
+        <v>90</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" t="s">
+        <v>95</v>
+      </c>
+      <c r="L60" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" t="s">
+        <v>96</v>
+      </c>
+      <c r="N60" t="s">
+        <v>90</v>
+      </c>
+      <c r="O60" t="s">
+        <v>90</v>
+      </c>
+      <c r="P60" t="s">
+        <v>90</v>
+      </c>
+      <c r="S60" t="s">
+        <v>97</v>
+      </c>
+      <c r="T60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO60" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="CZ60" t="s">
         <v>103</v>
       </c>
     </row>
